--- a/data/trans_orig/P33B2_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P33B2_2023-Habitat-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>46627</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>34344</v>
+        <v>35192</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>62049</v>
+        <v>62039</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.06761179426641514</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.04980133408244145</v>
+        <v>0.05103062770698728</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0899743636160443</v>
+        <v>0.08996049903834975</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>129</v>
@@ -762,19 +762,19 @@
         <v>77204</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>64033</v>
+        <v>65565</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>92165</v>
+        <v>90723</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1054434059839418</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.08745551299202176</v>
+        <v>0.08954717921609397</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1258776070594969</v>
+        <v>0.1239076424208585</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>181</v>
@@ -783,19 +783,19 @@
         <v>123831</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>106798</v>
+        <v>107233</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>145533</v>
+        <v>145498</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.08709375411502635</v>
+        <v>0.08709375411502633</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.07511383888117423</v>
+        <v>0.07541972713236864</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1023573348977595</v>
+        <v>0.1023325451070786</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>63410</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>49330</v>
+        <v>49573</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>82368</v>
+        <v>82630</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.09194828179071765</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.07153168518802078</v>
+        <v>0.07188340578991685</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1194377242681716</v>
+        <v>0.1198188390478089</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>178</v>
@@ -833,19 +833,19 @@
         <v>94613</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>81056</v>
+        <v>82594</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>108795</v>
+        <v>109963</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1292202993356386</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1107040111461422</v>
+        <v>0.1128054151350982</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.148589403329724</v>
+        <v>0.1501847601812392</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>251</v>
@@ -854,19 +854,19 @@
         <v>158023</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>137691</v>
+        <v>139405</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>179495</v>
+        <v>181349</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1111420701682421</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.09684206539850972</v>
+        <v>0.09804771835073513</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1262440204696599</v>
+        <v>0.1275476630014059</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>137894</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>119152</v>
+        <v>118421</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>159890</v>
+        <v>159694</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1999539580912935</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1727776789620215</v>
+        <v>0.1717169677742257</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2318499517260318</v>
+        <v>0.2315651146004808</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>398</v>
@@ -904,19 +904,19 @@
         <v>192855</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>175666</v>
+        <v>175274</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>210639</v>
+        <v>211331</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2633971869895111</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2399213257668673</v>
+        <v>0.2393856070212319</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2876865877337272</v>
+        <v>0.2886308709336647</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>576</v>
@@ -925,19 +925,19 @@
         <v>330749</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>305326</v>
+        <v>304994</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>360410</v>
+        <v>361087</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2326250070354945</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2147445103626945</v>
+        <v>0.214510684915617</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2534868530527419</v>
+        <v>0.253962423110284</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>441697</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>414178</v>
+        <v>413824</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>466063</v>
+        <v>466334</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.6404859658515737</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.600582064470132</v>
+        <v>0.6000682129446713</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.6758174809637209</v>
+        <v>0.6762116349804572</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>532</v>
@@ -975,19 +975,19 @@
         <v>367511</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>346938</v>
+        <v>345301</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>390616</v>
+        <v>388705</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.5019391076909084</v>
+        <v>0.5019391076909085</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.473839952553682</v>
+        <v>0.4716051145694993</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.5334955755834694</v>
+        <v>0.5308849349455934</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>958</v>
@@ -996,19 +996,19 @@
         <v>809208</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>772625</v>
+        <v>771274</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>840026</v>
+        <v>841499</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.5691391686812369</v>
+        <v>0.569139168681237</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.5434093850225181</v>
+        <v>0.5424589167600251</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.5908138279693926</v>
+        <v>0.5918502751852383</v>
       </c>
     </row>
     <row r="8">
@@ -1100,19 +1100,19 @@
         <v>61936</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>46351</v>
+        <v>48194</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>75854</v>
+        <v>79519</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.05904711345228912</v>
+        <v>0.05904711345228913</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.04418959295134542</v>
+        <v>0.04594597611421304</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.07231673718088835</v>
+        <v>0.07581058599779683</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>173</v>
@@ -1121,19 +1121,19 @@
         <v>112962</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>96620</v>
+        <v>97481</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>130572</v>
+        <v>132444</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1054893187628947</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.09022799690814311</v>
+        <v>0.09103214023491336</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1219342758707622</v>
+        <v>0.1236822078507819</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>244</v>
@@ -1142,19 +1142,19 @@
         <v>174897</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>152843</v>
+        <v>150868</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>198499</v>
+        <v>199612</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.08250835100482934</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.07210421415694057</v>
+        <v>0.07117242002754101</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.09364230703512495</v>
+        <v>0.09416749223209794</v>
       </c>
     </row>
     <row r="10">
@@ -1171,19 +1171,19 @@
         <v>77297</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>60646</v>
+        <v>60461</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>96089</v>
+        <v>96658</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.07369248976222854</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.05781815071293733</v>
+        <v>0.05764103217806444</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.09160761515295321</v>
+        <v>0.09215070250030676</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>201</v>
@@ -1192,19 +1192,19 @@
         <v>124983</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>108532</v>
+        <v>109881</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>141329</v>
+        <v>144349</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1167153434042312</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1013527634221807</v>
+        <v>0.1026125854443198</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1319797361234731</v>
+        <v>0.1347996919052215</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>282</v>
@@ -1213,19 +1213,19 @@
         <v>202281</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>179478</v>
+        <v>178434</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>230131</v>
+        <v>227200</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.0954263713195863</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.08466920682476459</v>
+        <v>0.08417691666554117</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1085650622959784</v>
+        <v>0.1071819640158211</v>
       </c>
     </row>
     <row r="11">
@@ -1242,19 +1242,19 @@
         <v>182625</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>157210</v>
+        <v>155785</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>210244</v>
+        <v>209199</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.174107839180075</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1498782367776888</v>
+        <v>0.148520158156443</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2004388045484148</v>
+        <v>0.1994425617559858</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>427</v>
@@ -1263,19 +1263,19 @@
         <v>250894</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>226573</v>
+        <v>228176</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>275440</v>
+        <v>274119</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2342965982219718</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2115844998104452</v>
+        <v>0.2130817325629255</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2572194034403379</v>
+        <v>0.2559855359048423</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>630</v>
@@ -1284,19 +1284,19 @@
         <v>433518</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>403064</v>
+        <v>399492</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>472198</v>
+        <v>467149</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2045134317747934</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1901464274281558</v>
+        <v>0.188461482442398</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2227605590558604</v>
+        <v>0.2203789003250022</v>
       </c>
     </row>
     <row r="12">
@@ -1313,19 +1313,19 @@
         <v>727060</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>695213</v>
+        <v>695274</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>757488</v>
+        <v>760191</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.6931525576054073</v>
+        <v>0.6931525576054074</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.6627911343381238</v>
+        <v>0.6628496090736412</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.7221624296478334</v>
+        <v>0.7247385380490481</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>715</v>
@@ -1334,19 +1334,19 @@
         <v>581999</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>552181</v>
+        <v>552604</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>610175</v>
+        <v>607761</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.5434987396109023</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.515653224823545</v>
+        <v>0.5160484817719239</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.5698111880798772</v>
+        <v>0.5675564550110304</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1324</v>
@@ -1355,19 +1355,19 @@
         <v>1309059</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1261062</v>
+        <v>1272374</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1349647</v>
+        <v>1353799</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.6175518459007909</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.5949094565060984</v>
+        <v>0.6002458500841917</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.6366996705822044</v>
+        <v>0.6386580317516088</v>
       </c>
     </row>
     <row r="13">
@@ -1459,19 +1459,19 @@
         <v>48976</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>34816</v>
+        <v>37054</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>64681</v>
+        <v>64831</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.06098622133929636</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.04335403127419144</v>
+        <v>0.04614016165356313</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.08054175558430079</v>
+        <v>0.08072829878449175</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>81</v>
@@ -1480,19 +1480,19 @@
         <v>61416</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>48719</v>
+        <v>48590</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>76335</v>
+        <v>75636</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.07561176851270238</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.05997920746646448</v>
+        <v>0.05982020961316561</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.09397875960236102</v>
+        <v>0.09311805451139782</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>131</v>
@@ -1501,19 +1501,19 @@
         <v>110393</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>92764</v>
+        <v>91962</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>130627</v>
+        <v>131962</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.06834057950526923</v>
+        <v>0.06834057950526924</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.05742739852334126</v>
+        <v>0.05693044972698048</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.08086669696345473</v>
+        <v>0.08169321865920158</v>
       </c>
     </row>
     <row r="15">
@@ -1530,19 +1530,19 @@
         <v>44146</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>33090</v>
+        <v>31836</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>59756</v>
+        <v>58595</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.05497172011088957</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.0412041378302128</v>
+        <v>0.03964214333233203</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.07440904602459036</v>
+        <v>0.07296352475686718</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>142</v>
@@ -1551,19 +1551,19 @@
         <v>101937</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>87875</v>
+        <v>85718</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>118512</v>
+        <v>118088</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.1254978126444097</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.1081862759472555</v>
+        <v>0.1055301531521756</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.1459044239659929</v>
+        <v>0.1453822823653989</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>187</v>
@@ -1572,19 +1572,19 @@
         <v>146083</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>125612</v>
+        <v>127275</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>169115</v>
+        <v>168494</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.0904352920640244</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.07776209426739107</v>
+        <v>0.07879159419975189</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.1046933678657741</v>
+        <v>0.1043089087274237</v>
       </c>
     </row>
     <row r="16">
@@ -1601,19 +1601,19 @@
         <v>167279</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>142047</v>
+        <v>144368</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>193633</v>
+        <v>194486</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2082985536419129</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1768798031872753</v>
+        <v>0.1797699563436741</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2411154083448611</v>
+        <v>0.2421777599067981</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>244</v>
@@ -1622,19 +1622,19 @@
         <v>180535</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>159672</v>
+        <v>161545</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>205638</v>
+        <v>202958</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2222626320475384</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1965781415585068</v>
+        <v>0.1988835987667701</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2531679490025752</v>
+        <v>0.2498684171294403</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>400</v>
@@ -1643,19 +1643,19 @@
         <v>347814</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>314947</v>
+        <v>313555</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>379248</v>
+        <v>380426</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2153202966806577</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1949737481008794</v>
+        <v>0.1941119695781438</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2347804525192158</v>
+        <v>0.2355093293796138</v>
       </c>
     </row>
     <row r="17">
@@ -1672,19 +1672,19 @@
         <v>542671</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>511178</v>
+        <v>513123</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>571846</v>
+        <v>569181</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.6757435049079012</v>
+        <v>0.675743504907901</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6365278367073491</v>
+        <v>0.6389491697074132</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7120721294120667</v>
+        <v>0.7087538584232397</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>580</v>
@@ -1693,19 +1693,19 @@
         <v>468371</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>439634</v>
+        <v>440645</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>493192</v>
+        <v>493092</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.5766277867953495</v>
+        <v>0.5766277867953494</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.5412485042527936</v>
+        <v>0.542492936163315</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6071856543603753</v>
+        <v>0.6070622420941911</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1005</v>
@@ -1714,19 +1714,19 @@
         <v>1011042</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>974500</v>
+        <v>974353</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1049503</v>
+        <v>1050472</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.6259038317500487</v>
+        <v>0.6259038317500486</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6032813465453007</v>
+        <v>0.6031907584545333</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6497137125499882</v>
+        <v>0.6503130858691374</v>
       </c>
     </row>
     <row r="18">
@@ -1818,19 +1818,19 @@
         <v>72330</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>57387</v>
+        <v>59815</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>89716</v>
+        <v>91170</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.07305560510827445</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.05796267928345959</v>
+        <v>0.06041584376459243</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.09061704556004213</v>
+        <v>0.09208502494155764</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>187</v>
@@ -1839,19 +1839,19 @@
         <v>125602</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>110441</v>
+        <v>108757</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>146031</v>
+        <v>143750</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1123129949947241</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.09875668915541777</v>
+        <v>0.09725024065401261</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1305807363564723</v>
+        <v>0.1285407676178713</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>273</v>
@@ -1860,19 +1860,19 @@
         <v>197931</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>174023</v>
+        <v>176735</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>219241</v>
+        <v>223789</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.09387834729450574</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.08253851069351247</v>
+        <v>0.08382488575112583</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1039853959958595</v>
+        <v>0.1061424290993931</v>
       </c>
     </row>
     <row r="20">
@@ -1889,19 +1889,19 @@
         <v>77999</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>63970</v>
+        <v>64565</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>95387</v>
+        <v>95074</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.07878158657534472</v>
+        <v>0.07878158657534473</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.06461225190036016</v>
+        <v>0.06521313437700561</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.09634397581156391</v>
+        <v>0.09602828011214502</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>218</v>
@@ -1910,19 +1910,19 @@
         <v>141557</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>123817</v>
+        <v>124898</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>161214</v>
+        <v>160208</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1265799965326433</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1107168934309535</v>
+        <v>0.111683335286121</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.144157102361495</v>
+        <v>0.1432576082651326</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>312</v>
@@ -1931,19 +1931,19 @@
         <v>219555</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>196446</v>
+        <v>198500</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>245554</v>
+        <v>248691</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.104134621260826</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.09317380373072746</v>
+        <v>0.09414797389117516</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1164656258531132</v>
+        <v>0.1179535459863305</v>
       </c>
     </row>
     <row r="21">
@@ -1960,19 +1960,19 @@
         <v>172675</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>148166</v>
+        <v>149059</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>198068</v>
+        <v>200463</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.174408280337367</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1496530547990157</v>
+        <v>0.1505550821701083</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2000557701075114</v>
+        <v>0.2024751984863318</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>374</v>
@@ -1981,19 +1981,19 @@
         <v>250008</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>227101</v>
+        <v>228153</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>273689</v>
+        <v>275964</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2235572923291698</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.2030733382111675</v>
+        <v>0.2040139208304038</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2447327277008628</v>
+        <v>0.2467668911900568</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>576</v>
@@ -2002,19 +2002,19 @@
         <v>422683</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>391112</v>
+        <v>383955</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>459111</v>
+        <v>458362</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2004776957614055</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1855035973295979</v>
+        <v>0.1821088232537202</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.217755065133925</v>
+        <v>0.2174002090656831</v>
       </c>
     </row>
     <row r="22">
@@ -2031,19 +2031,19 @@
         <v>667059</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>634090</v>
+        <v>632953</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>696647</v>
+        <v>697111</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.6737545279790138</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.6404551435852656</v>
+        <v>0.6393069077242037</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.7036395179614787</v>
+        <v>0.7041081521981701</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>782</v>
@@ -2052,19 +2052,19 @@
         <v>601152</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>569014</v>
+        <v>571232</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>629338</v>
+        <v>632642</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.5375497161434628</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5088119721404101</v>
+        <v>0.5107954268191829</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.562753528105066</v>
+        <v>0.565707626929163</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1406</v>
@@ -2073,19 +2073,19 @@
         <v>1268211</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1222563</v>
+        <v>1224255</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1309314</v>
+        <v>1310067</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.6015093356832628</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.5798587277872691</v>
+        <v>0.5806612609134791</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.6210042786584001</v>
+        <v>0.6213616224530033</v>
       </c>
     </row>
     <row r="23">
@@ -2177,19 +2177,19 @@
         <v>229868</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>199181</v>
+        <v>201441</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>257815</v>
+        <v>260511</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.06508757148913488</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.05639823702937712</v>
+        <v>0.0570381935525263</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.07300058897704809</v>
+        <v>0.07376409561947496</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>570</v>
@@ -2198,19 +2198,19 @@
         <v>377184</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>344792</v>
+        <v>347568</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>410559</v>
+        <v>411941</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.1010242237302333</v>
+        <v>0.1010242237302332</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.09234845524707457</v>
+        <v>0.09309184702802879</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1099632987175591</v>
+        <v>0.110333487781023</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>829</v>
@@ -2219,19 +2219,19 @@
         <v>607052</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>562775</v>
+        <v>564637</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>652936</v>
+        <v>654864</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.08355527700426991</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.0774609092945158</v>
+        <v>0.07771721071507486</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.08987068348177814</v>
+        <v>0.09013614995081236</v>
       </c>
     </row>
     <row r="25">
@@ -2248,19 +2248,19 @@
         <v>262852</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>229841</v>
+        <v>231552</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>297877</v>
+        <v>293308</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.07442700689035826</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.06507972254678919</v>
+        <v>0.06556437710925143</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.08434422053781949</v>
+        <v>0.08305062839193895</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>739</v>
@@ -2269,19 +2269,19 @@
         <v>463090</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>426468</v>
+        <v>430316</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>497806</v>
+        <v>496971</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1240330501432527</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1142242981237729</v>
+        <v>0.1152550610917368</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.133331358546949</v>
+        <v>0.1331077823200825</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1032</v>
@@ -2290,19 +2290,19 @@
         <v>725942</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>680606</v>
+        <v>677113</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>769268</v>
+        <v>777450</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.09991935916678459</v>
+        <v>0.09991935916678457</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.09367926744106712</v>
+        <v>0.0931984729625933</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1058828565148885</v>
+        <v>0.1070089927022143</v>
       </c>
     </row>
     <row r="26">
@@ -2319,19 +2319,19 @@
         <v>660472</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>614326</v>
+        <v>612705</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>711145</v>
+        <v>708276</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1870136782054442</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1739473526605962</v>
+        <v>0.1734881309107966</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2013618111754006</v>
+        <v>0.200549345536374</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1443</v>
@@ -2340,19 +2340,19 @@
         <v>874292</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>825696</v>
+        <v>828244</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>914418</v>
+        <v>917814</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2341686498479178</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2211529011573448</v>
+        <v>0.2218353576312432</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.24491591400264</v>
+        <v>0.2458255801636517</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>2182</v>
@@ -2361,19 +2361,19 @@
         <v>1534764</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1468122</v>
+        <v>1475886</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1599812</v>
+        <v>1607816</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2112464343349041</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.202073753423557</v>
+        <v>0.2031424112152219</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2201997052954938</v>
+        <v>0.2213014019982997</v>
       </c>
     </row>
     <row r="27">
@@ -2390,19 +2390,19 @@
         <v>2378487</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>2319036</v>
+        <v>2316652</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>2443015</v>
+        <v>2436146</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.6734717434150627</v>
+        <v>0.6734717434150628</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.6566380965173546</v>
+        <v>0.6559630862067501</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.6917429776152584</v>
+        <v>0.6897980411839922</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>2609</v>
@@ -2411,19 +2411,19 @@
         <v>2019033</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>1966332</v>
+        <v>1965096</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>2077014</v>
+        <v>2076469</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>0.5407740762785963</v>
+        <v>0.5407740762785962</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.5266587115839585</v>
+        <v>0.5263277121612219</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.5563037127488455</v>
+        <v>0.5561575923501195</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>4693</v>
@@ -2432,19 +2432,19 @@
         <v>4397520</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>4317974</v>
+        <v>4311659</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>4481870</v>
+        <v>4477569</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.6052789294940414</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.5943300938651567</v>
+        <v>0.5934608570253908</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.6168888638300863</v>
+        <v>0.616296849450351</v>
       </c>
     </row>
     <row r="28">
